--- a/sprint/testcase_ConverLab_sprint0.35.xlsx
+++ b/sprint/testcase_ConverLab_sprint0.35.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27815"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WilliamZhou/Documents/test/sprint/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="24420" windowHeight="16660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="115">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -249,6 +262,668 @@
   <si>
     <t>Sprint 0.35
 XP-4191</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例简单描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预置条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行步骤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自动化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConverLab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析中心_微页面访问量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“微页面访问量”页面TitleBar检查</t>
+    <rPh sb="8" eb="9">
+      <t>ye'mian</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jian'c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“微页面访问量”页面TitleBar检查：报表类型（一级）/该报表名称（二级）</t>
+    <rPh sb="8" eb="9">
+      <t>ye'mian</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jian'cha</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 点击“分析”，默认跳转子菜单一“微页面访问量”页面
+2 检查TitleBar</t>
+    <rPh sb="2" eb="3">
+      <t>diann'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen'xi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mo'reen</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tiao'zhuan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cai'dan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wei'xin</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ye'mian</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>fang'wen'l</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ye'mia</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jian'cha</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 TitleBar显示为：分析中心/微页面访问量</t>
+    <rPh sb="10" eb="11">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fen'xi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhong'xin</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wei'xiao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ye'mian</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>fang'wen'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周威</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint 0.35
+XP-4098</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析中心_漏斗分析</t>
+    <rPh sb="5" eb="6">
+      <t>lou'dou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fen'xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“漏斗分析”页面TitleBar检查</t>
+    <rPh sb="1" eb="2">
+      <t>lou'dou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fen'xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ye'mian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jian'c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“漏斗分析”页面TitleBar检查：报表类型（一级）/该报表名称（二级）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到Convertab系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 点击“分析”-“漏斗分析”，跳转到“漏斗分析”页面
+2 检查TitleBar</t>
+    <rPh sb="2" eb="3">
+      <t>diann'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen'xi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lou'do</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fen'xi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>tiao'zhuan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>doa</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>lou'd</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>fn'xi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ye'mia</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jian'cha</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 TitleBar显示为：分析中心/漏斗分析</t>
+    <rPh sb="10" eb="11">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fen'xi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhong'xin</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>lou'do</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>fen'xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析中心_漏斗分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏斗分析事件-短消息相关的事件</t>
+    <rPh sb="4" eb="5">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测漏斗分析数事件新增种类（短消息相关的事件）</t>
+    <rPh sb="7" eb="8">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhong'lei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 分析中心-漏斗分析，新建一个漏斗分析，事件【短消息相关的事件】
+2 选择分析维度【客户来源】（遍历测试其他分析维度），选择查询日期
+3 点击查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 选择事件【短消息相关事件】成功 
+2 漏斗分析成功创建
+3 漏斗分析数据统计准确</t>
+    <rPh sb="2" eb="3">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>duan'xiao'xi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>cheng'g</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint 0.35
+XP-4121</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏斗分析事件-扫微信公众号二维码</t>
+    <rPh sb="4" eb="5">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>sao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei'xin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gong'zh</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>er'wei'ma</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测漏斗分析数事件（扫微信公众号二维码）子菜单可选下拉</t>
+    <rPh sb="7" eb="8">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>cai'd</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ke'xuan</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>xia'la</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 分析中心-漏斗分析，新建一个漏斗分析，事件【扫微信公众号二维码】
+2 在子菜单的下拉框中选择一个二维码
+3 选择分析维度【客户来源】（遍历测试其他分析维度），选择查询日期
+4 点击查询</t>
+    <rPh sb="37" eb="38">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zi'cai'd</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>d</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>xia'la'k</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>er'wei'ma</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 【扫微信公众号二维码】子菜单二维码下拉可选
+2 选择事件【扫微信公众号二维码】成功 
+3 漏斗分析成功创建
+4 漏斗分析数据统计准确</t>
+    <rPh sb="3" eb="4">
+      <t>sao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong'zhong'h</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>er'wei'ma</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zi'cai'd</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>er'wei'ma</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xia'la</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ke'xuan</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>cheng'g</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入新建微信字段客户</t>
+    <rPh sb="4" eb="5">
+      <t>wei'xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'duan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入客户支持微信Open ID和Union ID字段</t>
+    <rPh sb="2" eb="3">
+      <t>ke'hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
+2 客户字段中存在微信Open ID和Union ID字段
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 编辑excel表格，在各列下输入10位用户，数字递增，具体如下,姓名：【test01】，邮箱：【test01@yahoo.com】，手机：【13813813801】以及不重复的微信Open ID和Union ID字段
+2 点击客户-客户，点击导入，拖动新编辑的excel表格，手动匹配excel表格中字段与系统中名称不相同的相应字段
+3 点击导入，填写附加设置信息，加入群组【导入统计微信字段】，标签【微信字段】，营销活动【test】，来源【微信】，客户阶段【初级阶段】，点击确认无误，开始导入
+</t>
+    <rPh sb="86" eb="87">
+      <t>bu'chong'fu</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>d</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>wei'xn</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>zi'duan</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>wei'xn</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>zi'duan</t>
+    </rPh>
+    <rPh sb="223" eb="224">
+      <t>wei'xin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功建立了10个用户
+2 10个用户信息和输入保持一致，包括Open ID和Union ID字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint 0.35
+XP-4218</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入新建微信字段客户的自动合并</t>
+    <rPh sb="4" eb="5">
+      <t>wei'xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'duan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>he'b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入客户支持微信Open ID和Union ID字段的自动合并</t>
+    <rPh sb="2" eb="3">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>d</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>he'b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 编辑excel表格，在各列下输入10位用户，数字递增，具体如下,姓名：【test01】，邮箱：【test01@yahoo.com】，手机：【13813813801】以及有重复相同的微信Open ID和Union ID字段
+2 点击客户-客户，点击导入，拖动新编辑的excel表格，手动匹配excel表格中字段与系统中名称不相同的相应字段
+3 点击导入，填写附加设置信息，加入群组【导入统计微信字段】，标签【微信字段】，营销活动【test】，来源【微信】，客户阶段【初级阶段】，点击确认无误，开始导入
+</t>
+    <rPh sb="86" eb="87">
+      <t>you</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>chong'fu</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>xiang't</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>d</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>wei'xn</t>
+    </rPh>
+    <rPh sb="198" eb="199">
+      <t>zi'duan</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>wei'xn</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>zi'duan</t>
+    </rPh>
+    <rPh sb="225" eb="226">
+      <t>wei'xin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功建立了10个用户
+2 10个用户信息和输入保持一致，包括Open ID和Union ID字段
+3 在导入过程中，有记录有相同的Open ID和Union ID的客户，可以自动合并</t>
+    <rPh sb="83" eb="84">
+      <t>d</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ke'yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户_客户中心</t>
+  </si>
+  <si>
+    <t>客户列表高级筛选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证客户列表的高级筛选的客户排序</t>
+    <rPh sb="11" eb="12">
+      <t>d</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>pai'xu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账号登录到ConvertLab系统
+2 系统客户列表中存在不同类型的用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 点击“客户”-“客户”
+2 查看客户排序是否按时间由近及远
+2 点击切换到高级筛选，查看客户排序是否按时间由近及远</t>
+    <rPh sb="16" eb="17">
+      <t>cha'kan'n</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>pai'xu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>an</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>you'jin'ji'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 客户排序正确</t>
+    <rPh sb="2" eb="3">
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'xu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zheng'que</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周威</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'w</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint 0.35
+XP-4172</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -256,11 +931,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -268,19 +943,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="dengxian"/>
+      <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -288,13 +964,38 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="dengxian"/>
+      <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="dengxian"/>
+      <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -332,7 +1033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -352,6 +1053,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -367,7 +1102,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -409,12 +1144,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -444,12 +1179,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -653,25 +1388,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
-    <col min="6" max="6" width="29.875" customWidth="1"/>
-    <col min="7" max="7" width="39.625" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
-    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +1450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="109.5" customHeight="1">
+    <row r="2" spans="1:14" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -759,7 +1494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="78.75" customHeight="1">
+    <row r="3" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -803,7 +1538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="114.75" customHeight="1">
+    <row r="4" spans="1:14" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -847,7 +1582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="78.75" customHeight="1">
+    <row r="5" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -891,7 +1626,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="78.75" customHeight="1">
+    <row r="6" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -935,7 +1670,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="78.75" customHeight="1">
+    <row r="7" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -977,21 +1712,373 @@
       </c>
       <c r="N7" s="3" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="10">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="75" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>3</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="15">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="90" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>4</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="18" customFormat="1" ht="195" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="18" customFormat="1" ht="195" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J7 J11:J17">
       <formula1>"None,Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M7 M11:M17">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K7 K11:K17">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I7 I11:I17">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1006,7 +2093,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1019,7 +2106,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
